--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample08/Sample-08.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample08/Sample-08.xlsx
@@ -187,16 +187,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="jgxfha12" xfId="1"/>
-    <cellStyle name="jgxfha12_Alternate" xfId="2"/>
+    <cellStyle name="bz1hldpg" xfId="1"/>
+    <cellStyle name="bz1hldpg_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="j01uc4vl" xfId="5"/>
-    <cellStyle name="j01uc4vl_Alternate" xfId="6"/>
-    <cellStyle name="bz5gbdxy" xfId="7"/>
-    <cellStyle name="bz5gbdxy_Alternate" xfId="8"/>
-    <cellStyle name="xeaxjfye" xfId="9"/>
-    <cellStyle name="xeaxjfye_Alternate" xfId="10"/>
+    <cellStyle name="pcm3gw5t" xfId="5"/>
+    <cellStyle name="pcm3gw5t_Alternate" xfId="6"/>
+    <cellStyle name="aaettnil" xfId="7"/>
+    <cellStyle name="aaettnil_Alternate" xfId="8"/>
+    <cellStyle name="zeftopdi" xfId="9"/>
+    <cellStyle name="zeftopdi_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample08/Sample-08.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample08/Sample-08.xlsx
@@ -187,16 +187,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="bz1hldpg" xfId="1"/>
-    <cellStyle name="bz1hldpg_Alternate" xfId="2"/>
+    <cellStyle name="ykzk5zoi" xfId="1"/>
+    <cellStyle name="ykzk5zoi_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="pcm3gw5t" xfId="5"/>
-    <cellStyle name="pcm3gw5t_Alternate" xfId="6"/>
-    <cellStyle name="aaettnil" xfId="7"/>
-    <cellStyle name="aaettnil_Alternate" xfId="8"/>
-    <cellStyle name="zeftopdi" xfId="9"/>
-    <cellStyle name="zeftopdi_Alternate" xfId="10"/>
+    <cellStyle name="uwrkzsr0" xfId="5"/>
+    <cellStyle name="uwrkzsr0_Alternate" xfId="6"/>
+    <cellStyle name="bubfncf1" xfId="7"/>
+    <cellStyle name="bubfncf1_Alternate" xfId="8"/>
+    <cellStyle name="ikxqu5sd" xfId="9"/>
+    <cellStyle name="ikxqu5sd_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
